--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Bailly', 'Harit', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Alioui']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Danois', 'Danois', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Spierings']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Porozo', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Maouassa', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand']</t>
+    <t>['Sanches', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Lipinski', 'Danois', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Pepe', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Bercola', 'Cherki', 'Caqueret']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Lopez', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Ganiou', 'Sylla']</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Lemarechal', 'Lemarechal', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Kipembe']</t>
-  </si>
-  <si>
-    <t>['Fortes']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Lega', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Attal']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Roure', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Rodon', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Aguilar', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Bayo', 'Versini']</t>
+    <t>['Tchato', 'Savanier', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Doumbia']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Flips', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Terrier']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Silva']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Chardonnet', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Delort']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Ribeiro']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Sanches', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Lipinski', 'Danois', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Pepe', 'Bryan']</t>
+    <t>['Autret', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Sylla', 'Gradit', 'Varane']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Ben_Yedder', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Boyer', 'Maurer', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Wooh', 'Santamaria', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Tagliafico', 'Tolisso', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Roure']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Serhuis', 'Cajuste', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Innocent', 'Ponceau', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Mendy']</t>
   </si>
   <si>
     <t>['ChaÃ¯bi']</t>
   </si>
   <si>
-    <t>['Sanchez', 'Bercola', 'Cherki', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Lopez', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Ganiou', 'Sylla']</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Savanier', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Flips', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Terrier']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Silva']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Djiku']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Chardonnet', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Delort']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Ribeiro']</t>
+    <t>['Sainte-Luce', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Payet']</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Autret', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Sylla', 'Gradit', 'Varane']</t>
+    <t>['Pellenard', 'Merdji', 'Dembele', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Chavalerin', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Gouiri', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Castelletto']</t>
+  </si>
+  <si>
+    <t>['Maouassa']</t>
+  </si>
+  <si>
+    <t>['Jakobs']</t>
+  </si>
+  <si>
+    <t>['Sanches']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Embolo', 'Ben_Yedder', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Boyer', 'Maurer', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Wooh', 'Santamaria', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Tagliafico', 'Tolisso', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Roure']</t>
-  </si>
-  <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Troyes</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>['Yoro', 'Fonte']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Serhuis', 'Cajuste', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Innocent', 'Ponceau', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
+    <t>['Duverne', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Cajuste', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Guillaume', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Le_Goff']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Vidal', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Harit', 'Balerdi']</t>
   </si>
 </sst>
 </file>
@@ -549,28 +546,28 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -578,115 +575,115 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -694,28 +691,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -726,54 +723,54 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -781,60 +778,60 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Pellenard', 'Merdji', 'Dembele', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Chavalerin', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Gouiri', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Maouassa']</t>
+    <t>['Flips', 'Flips', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Le_Fee', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Santamaria', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Danois']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Mounie']</t>
   </si>
   <si>
     <t>['Jakobs']</t>
   </si>
   <si>
-    <t>['Sanches']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Le_Marchand']</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Cajuste', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Guillaume', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Vidal', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Harit', 'Balerdi']</t>
+    <t>['Brahimi']</t>
+  </si>
+  <si>
+    <t>['Roure']</t>
+  </si>
+  <si>
+    <t>['Corduan']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Dallinga', 'Healey', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Conte', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Verrati']</t>
   </si>
 </sst>
 </file>
@@ -546,36 +549,36 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -584,27 +587,27 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -613,36 +616,36 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -651,27 +654,27 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -680,18 +683,18 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -700,27 +703,27 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -729,56 +732,56 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -787,51 +790,51 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Pellenard', 'Merdji', 'Dembele', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Chavalerin', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Gouiri', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen', 'Desler']</t>
+    <t>['Chavalerin', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Lopy', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Sakho', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>["N'Diaye", 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Bayo']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Magnetti', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Theate']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Mbappe']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Clauss', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Medina']</t>
   </si>
   <si>
     <t>['Castelletto', 'Castelletto']</t>
   </si>
   <si>
-    <t>['Maouassa']</t>
-  </si>
-  <si>
-    <t>['Jakobs']</t>
-  </si>
-  <si>
-    <t>['Sanches']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Cajuste', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Alioui', 'Guillaume', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Vidal', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Harit', 'Balerdi']</t>
+    <t>['Mendy']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Pelon', 'Matsima', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Delaine', 'Bellegarde']</t>
   </si>
 </sst>
 </file>
@@ -546,36 +549,36 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -584,36 +587,36 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -622,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -651,27 +654,27 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -680,18 +683,18 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -700,27 +703,27 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -729,27 +732,27 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -758,27 +761,27 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -787,51 +790,51 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Flips', 'Flips', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Le_Fee', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Santamaria', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Danois']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Mounie']</t>
-  </si>
-  <si>
-    <t>['Jakobs']</t>
+    <t>['Majer', 'Santamaria', 'Assignon', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Bain', 'Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Pele', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Lemarechal', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['David', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Gusto', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Savanier']</t>
   </si>
   <si>
     <t>['Le_Marchand']</t>
   </si>
   <si>
+    <t>['Spierings']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Brahimi']</t>
-  </si>
-  <si>
-    <t>['Roure']</t>
-  </si>
-  <si>
-    <t>['Corduan']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'Healey', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Conte', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Mendes', 'Verrati']</t>
+    <t>['Sanches', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Lopy']</t>
+  </si>
+  <si>
+    <t>['Bamba']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Lopez', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Varane', 'Pereira', 'Fortes', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Delort', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Talbi', 'Le_Fee']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,12 +660,12 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,12 +747,12 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,34 +40,70 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Cherki', 'Sanchez', 'Gusto', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Michelin', 'Alphonse', 'Lebas', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Boura', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Serrano']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Santamaria', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Lemarechal', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Ito']</t>
+    <t>['Theate', 'Majer', 'Majer', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'David', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Alioui', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'H.Diallo', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Pellenard']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>['Boyer']</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>['Healey']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>OL</t>
@@ -76,85 +112,46 @@
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Soler']</t>
-  </si>
-  <si>
-    <t>['Rongier']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Attal', 'Diop', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Dembele', 'Da_Costa', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Palaversa', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Alioui']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Le_Goff', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Spierings', 'Onaiwu']</t>
+    <t>['Abdelhamid', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Cherki', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Vidal', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Ramos']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Del_Castillo', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Simon', 'Coco', 'Blas']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +543,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,19 +552,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -575,7 +572,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -584,19 +581,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -604,7 +601,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -613,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -622,10 +619,10 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -633,123 +630,123 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -758,7 +755,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -767,10 +764,10 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -778,7 +775,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -787,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -796,10 +793,10 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -807,16 +804,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -825,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +43,118 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Theate', 'Majer', 'Majer', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'David', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Alioui', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand', 'H.Diallo', 'Delaine']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Pellenard']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Ben_Seguir', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Santamaria', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Ruiz', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Bercola', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Danois']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Bellegarde']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Boyer']</t>
-  </si>
-  <si>
-    <t>['Healey']</t>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Porozo', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Cherki', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Vidal', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Ramos']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Del_Castillo', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Simon', 'Coco', 'Blas']</t>
+    <t>['Munetsi', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Spierings', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Gigot']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Alioui']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Maouassa', 'Sakho', 'Savanier']</t>
   </si>
 </sst>
 </file>
@@ -509,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,295 +543,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="K7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
         <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,115 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Serrano', 'Ben_Seguir', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Santamaria', 'Santamaria', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Ruiz', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Bercola', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Danois']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Valencia']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Bellegarde']</t>
+    <t>['Tchato', 'Savanier', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Martin', 'Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Serhuis', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Hamouma', "N'Diaye", 'Silla']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Ponceau', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Sibide']</t>
+  </si>
+  <si>
+    <t>['Delort']</t>
+  </si>
+  <si>
+    <t>['Mbappe']</t>
+  </si>
+  <si>
+    <t>['Borges']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>['Fortes', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Tolisso']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Chavalerin']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Spierings', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Gigot']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Maurer']</t>
-  </si>
-  <si>
-    <t>['Alioui']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Maouassa', 'Sakho', 'Savanier']</t>
+    <t>['ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Autret', 'Lipinski', 'Pellenard']</t>
   </si>
 </sst>
 </file>
@@ -552,10 +561,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -582,15 +591,15 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -605,27 +614,27 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -640,30 +649,30 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -675,27 +684,27 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -707,30 +716,30 @@
         <v>24</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -751,24 +760,24 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -777,30 +786,30 @@
         <v>26</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -812,7 +821,7 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -821,7 +830,7 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -832,13 +841,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -847,30 +856,30 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -882,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -891,13 +900,13 @@
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/jour9.xlsx
+++ b/jour9.xlsx
@@ -46,124 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Tchato', 'Savanier', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Martin', 'Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Serhuis', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Hamouma', "N'Diaye", 'Silla']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Ponceau', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Sibide']</t>
-  </si>
-  <si>
-    <t>['Delort']</t>
-  </si>
-  <si>
-    <t>['Mbappe']</t>
-  </si>
-  <si>
-    <t>['Borges']</t>
+    <t>['Elis', 'Lemarechal', 'Lemarechal', 'Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Odobert', 'Lopez', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Alphonse', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Laporte', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Le_Cardinal']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Dembele']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Capelle']</t>
+  </si>
+  <si>
+    <t>['Sanches']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Tolisso']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Autret', 'Lipinski', 'Pellenard']</t>
+    <t>['Serhuis']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Burlet']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Khazri']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Harit', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Pele', 'Sibide']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -576,10 +576,10 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -591,15 +591,15 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -611,10 +611,10 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -661,18 +661,18 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -693,18 +693,18 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -716,10 +716,10 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -731,15 +731,15 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -766,15 +766,15 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>26</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -801,18 +801,18 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -821,10 +821,10 @@
         <v>27</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -833,21 +833,21 @@
         <v>47</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -868,18 +868,18 @@
         <v>48</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
